--- a/HibernateTips/Hibernate.xlsx
+++ b/HibernateTips/Hibernate.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Associations" sheetId="1" r:id="rId1"/>
     <sheet name="Advanced" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Inheritance" sheetId="3" r:id="rId3"/>
+    <sheet name="Loggining" sheetId="4" r:id="rId4"/>
+    <sheet name="JPQL" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>One book can have many reviews</t>
   </si>
@@ -585,6 +587,830 @@
   <si>
     <t xml:space="preserve"> @Formula - calculated attributes</t>
   </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Author {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ @Column
+ private LocalDate dateOfBirth;
+ @Formula(value = "date_part('year', age(dateOfBirth))")
+ private int age;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use the @Formula﻿ annotation to provide a SQL snippet. Hibernate executes it when it fetches the entity from the database. The return value of the SQL expression gets mapped to a read-only entity attribute.
+The @Formula annotation provides an easy way to map the result of an SQL snippet to an entity attribute. But it also has some downsides you should be aware of: 
+Hibernate executes the SQL snippet for every Author entity it fetches from the database. So better make sure, that you only use it for attributes you need in all of your use cases. 
+You need to provide a native SQL snippet to the @Formula﻿ annotation. This can affect the database portability of your application.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The transient attribute approach requires a little more code but allows you to store the calculated value in an entity attribute witghout persisting it
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The @Transient﻿ annotation tells Hibernate, and any other JPA implementation, to ignore the attribute when writing or reading the entity.
+This can be useful, if you need to perform a complex calculation that you don’t want to repeat for each call.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Author {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private LocalDate dateOfBirth;
+ @Transient
+ private Integer age;
+ public int getAge() {
+  if (this.age == null) {
+   log.info("Calculate age");
+   this.age = Period.between(dateOfBirth, LocalDate.now()).getYears();
+  } else {
+   log.info("Return cached value.");
+  }
+  return age;
+ }
+</t>
+  </si>
+  <si>
+    <t>Transient entity attribute</t>
+  </si>
+  <si>
+    <t>PrePersist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Author {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ private LocalDateTime createdAt;
+ @PrePersist
+ private void initializeCreatedAt() {
+  this.createdAt = LocalDateTime.now();
+  log.info("Set createdAt to "+this.createdAt);
+ }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The JPA specification defines a set of callback annotations to trigger method calls for certain lifecycle events. If you want to initialize an entity attribute before it gets persisted, you just have to do 2 things: 
+Add a method to the entity that initializes the attribute. 
+Annotate this method with @PrePersist﻿ so that Hibernate calls it before it persists the entity.
+Hibernate calls the initializeCreatedAt﻿ method before it selects the primary key value from the database. It then persists the createdAt﻿ attribute value in the database.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @OrderBy﻿ annotation</t>
+  </si>
+  <si>
+    <t>Hibernate applies the ordering every time it loads the associated entities from the database. That slows down the query, and you should make sure that you always need to retrieve the entities in the defined order. Otherwise, you should use a use case-specific query that returns the entities in the defined order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @ManyToMany
+ @JoinTable(
+        name="BookAuthor",
+        joinColumns={@JoinColumn(name="bookId", referencedColumnName="id")},
+        inverseJoinColumns={@JoinColumn(name="authorId", referencedColumnName="id")})
+ @OrderBy(value = "lastName")
+ private Set&lt;Author&gt; authors = new HashSet&lt;Author&gt;();</t>
+  </si>
+  <si>
+    <t>Derived Primary Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ @Temporal(TemporalType.DATE)
+ private Date publishingDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Review {
+ @EmbeddedId
+ private ReviewId id;
+ private String comment;
+ @ManyToOne
+ @JoinColumn(name = "fk_book")
+ @MapsId("bookId")
+ private Book book;
+ public ReviewId getId() {
+  return id;
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Embeddable
+public class ReviewId implements Serializable {
+ private static final long serialVersionUID = -5073745645379676235L;
+ private String userName;
+ private Long bookId;
+ public ReviewId() {
+ }
+ public ReviewId(String userName, Long bookId) {
+  this.userName = userName;
+  this.bookId = bookId;
+ }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE public.book
+(
+    id bigint NOT NULL,
+    publishingdate date,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    CONSTRAINT book_pkey PRIMARY KEY (id)
+)
+CREATE TABLE public.review
+(
+    fk_book bigint NOT NULL,
+    username character varying(255) COLLATE pg_catalog."default" NOT NULL,
+    comment character varying(255) COLLATE pg_catalog."default",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    CONSTRAINT review_pkey PRIMARY KEY (fk_book, username),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    CONSTRAINT fkthjqkpg0sfqgbw2orswd94hdi FOREIGN KEY (fk_book)
+        REFERENCES public.book (id) MATCH SIMPLE
+        ON UPDATE NO ACTION
+        ON DELETE NO ACTION
+)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You can model a derived primary key with an embedded id and a @MapsId﻿ annotation on the association whose primary key is part of the derived identifier.
+The id﻿ attribute models the primary key of the Review﻿ entity. It is of type ReviewId﻿, which is an embeddable
+The second important part of this mapping is the @MapsId﻿ annotation on the Book book﻿ association. You can use this annotation with many-to-one and one-to-one associations. It tells Hibernate to use the primary key of the to-one side of the association as a primary key attribute of the to-many side of the association.
+In this example, the id﻿ attribute of the Book﻿ entity becomes part of the primary key of the Review﻿ entity and gets mapped to the bookId﻿ attribute of the ReviewId﻿ class.
+A primary key class must be public, have a public default constructor, be serializable and implement the equals and hashCode methods.
+</t>
+  </si>
+  <si>
+    <t>AssociationWithAttributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ @OneToMany(mappedBy = "book")
+ private List&lt;BookPublisher&gt; publishers = new ArrayList&lt;BookPublisher&gt;();
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Publisher {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String name;
+ @OneToMany(mappedBy = "publisher")
+ private List&lt;BookPublisher&gt; books = new ArrayList&lt;BookPublisher&gt;();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class BookPublisher {
+ @EmbeddedId
+ private BookPublisherId id;
+ @Enumerated(EnumType.STRING)
+ private Format format;
+ @ManyToOne
+ @JoinColumn(name = "fk_book")
+ @MapsId("bookId")
+ private Book book;
+ @ManyToOne
+ @JoinColumn(name = "fk_publisher")
+ @MapsId("publisherId")
+ private Publisher publisher;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Embeddable
+public class BookPublisherId implements Serializable {
+ private static final long serialVersionUID = -3287715633608041039L;
+ private Long bookId;
+ private Long publisherId;
+ public BookPublisherId() {
+ }
+ public BookPublisherId(Long bookId, Long publisherId) {
+  this.bookId = bookId;
+  this.publisherId = publisherId;
+ }</t>
+  </si>
+  <si>
+    <t>CREATE TABLE public.book
+(
+    id bigint NOT NULL,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    CONSTRAINT book_pkey PRIMARY KEY (id)
+)
+CREATE TABLE public.publisher
+(
+    id bigint NOT NULL,
+    name character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    CONSTRAINT publisher_pkey PRIMARY KEY (id)
+)
+CREATE TABLE public.bookpublisher
+(
+    fk_book bigint NOT NULL,
+    fk_publisher bigint NOT NULL,
+    format character varying(255) COLLATE pg_catalog."default",
+    CONSTRAINT bookpublisher_pkey PRIMARY KEY (fk_book, fk_publisher),
+    CONSTRAINT fk9qm78m3bnibr7duj3twe2gy02 FOREIGN KEY (fk_book)
+        REFERENCES public.book (id) MATCH SIMPLE
+        ON UPDATE NO ACTION
+        ON DELETE NO ACTION,
+    CONSTRAINT fkp7wfo62a8y7bf5q6m0nbxg2w7 FOREIGN KEY (fk_publisher)
+        REFERENCES public.publisher (id) MATCH SIMPLE
+        ON UPDATE NO ACTION
+        ON DELETE NO ACTION
+)</t>
+  </si>
+  <si>
+    <t>MappedSuperclass</t>
+  </si>
+  <si>
+    <t>The MappedSuperclass﻿ approach maps each entity class to a database table but not the superclass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors﻿ can write different kinds of Publications﻿, like Books﻿ and BlogPosts﻿. The Publication﻿ class is the super class of the Book﻿ and BlogPost﻿ classes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @MappedSuperclass
+public abstract class Publication {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ private LocalDate publishingDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You define this mapping by annotating the superclass with the @MappedSuperclass﻿ annotation but not with a @Entity﻿ annotation.The superclass is not an entity. It just defines the attributes that are shared by the subclasses.
+The subclasses only need to extend the superclass and are annotated with a @Entity﻿ annotation. The mapping of the inheritance hierarchy doesn’t require any additional annotations.
+The MappedSuperclass﻿ approach enables Hibernate to select Book﻿ or BlogPost﻿ entities with a simple SQL query. But it doesn’t support any polymorphic queries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book extends Publication {
+ private int numPages;
+ public int getNumPages() {
+  return numPages;
+ }
+ public void setNumPages(int numPages) {
+  this.numPages = numPages;
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @Entity
+public class BlogPost extends Publication {
+ private String url;
+ public String getUrl() {
+  return url;
+ }
+ public void setUrl(String url) {
+  this.url = url;
+ }</t>
+  </si>
+  <si>
+    <t>TablePerClass</t>
+  </si>
+  <si>
+    <t>The TablePerClass﻿ strategy maps each concrete entity class of the hierarchy, including the superclass, to its own database table. In contrast to the MappedSuperclass﻿ approach, the superclass is now also an entity which gets mapped to a database table and can be used in queries and associations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@Inheritance(strategy = InheritanceType.TABLE_PER_CLASS)
+public class  Publication {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ private LocalDate publishingDate;
+ @ManyToMany
+ @JoinTable(
+        name="PublicationAuthor",
+        joinColumns={@JoinColumn(name="publicationId", referencedColumnName="id")},
+        inverseJoinColumns={@JoinColumn(name="authorId", referencedColumnName="id")})
+ private Set&lt;Author&gt; authors = new HashSet&lt;Author&gt;();</t>
+  </si>
+  <si>
+    <t>The TablePerClass﻿ strategy allows efficient queries as long as you select only one kind of entity. But as you can see in the following log output, polymorphic queries and associations require complex join statements and should be avoided.</t>
+  </si>
+  <si>
+    <t>CREATE TABLE public.publication
+(
+    id bigint NOT NULL,
+    publishingdate date,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    CONSTRAINT publication_pkey PRIMARY KEY (id)
+)
+CREATE TABLE public.book
+(
+    id bigint NOT NULL,
+    publishingdate date,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    numpages integer NOT NULL,
+    CONSTRAINT book_pkey PRIMARY KEY (id)
+)
+CREATE TABLE public.blogpost
+(
+    id bigint NOT NULL,
+    publishingdate date,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    url character varying(255) COLLATE pg_catalog."default",
+    CONSTRAINT blogpost_pkey PRIMARY KEY (id)
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Joined﻿ strategy maps each entity of the hierarchy, including the superclass, to a database table. But in contrast to the TablePerClass﻿ approach, the table of the superclass contains all columns shared by the subclasses. That makes the book﻿ and
+blogpost﻿ table of the current example a lot smaller. They only consist of a primary key column and a column to persist the additional attribute of each entity.
+</t>
+  </si>
+  <si>
+    <t>Joined</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@Inheritance(strategy = InheritanceType.JOINED)
+public abstract class Publication {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ private LocalDate publishingDate;
+ @ManyToMany
+ @JoinTable(
+        name="PublicationAuthor",
+        joinColumns={@JoinColumn(name="publicationId", referencedColumnName="id")},
+        inverseJoinColumns={@JoinColumn(name="authorId", referencedColumnName="id")})
+ private Set&lt;Author&gt; authors = new HashSet&lt;Author&gt;();</t>
+  </si>
+  <si>
+    <t>CREATE TABLE public.publication
+(
+    id bigint NOT NULL,
+    publishingdate date,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    CONSTRAINT publication_pkey PRIMARY KEY (id)
+)
+CREATE TABLE public.book
+(
+    numpages integer NOT NULL,
+    id bigint NOT NULL,
+    CONSTRAINT book_pkey PRIMARY KEY (id),
+    CONSTRAINT fkh7kfm44rlyes4hoxg70sw2v7k FOREIGN KEY (id)
+        REFERENCES public.publication (id) MATCH SIMPLE
+        ON UPDATE NO ACTION
+        ON DELETE NO ACTION
+)
+CREATE TABLE public.blogpost
+(
+    url character varying(255) COLLATE pg_catalog."default",
+    id bigint NOT NULL,
+    CONSTRAINT blogpost_pkey PRIMARY KEY (id),
+    CONSTRAINT fkgt67fuksb7gbbtvt98fsf72hb FOREIGN KEY (id)
+        REFERENCES public.publication (id) MATCH SIMPLE
+        ON UPDATE NO ACTION
+        ON DELETE NO ACTION
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Joined﻿ table strategy maps the entity attributes defined by the superclass to columns in the publication﻿ table and the attributes defined by the Book﻿ or BlogPost﻿ entity to columns in the book﻿ or blogpost﻿ table. That makes the tables of the subclasses smaller and polymorphic queries easier. But all select statements require at least one JOIN﻿ clause that joins the table of the superclass with the table of the selected subclass.
+</t>
+  </si>
+  <si>
+    <t>SingleTable</t>
+  </si>
+  <si>
+    <t>The SingleTable﻿ strategy maps an inheritance hierarchy of entities to a single database table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to use this inheritance strategy, you need to annotate the superclass with an @Inheritance﻿ annotation and provide the InheritanceType.SINGLE_TABLE﻿ as the value of the strategy﻿ attribute. You can also annotate the superclass with a @DiscriminatorColumn﻿ annotation to define the name of the discriminator value. Hibernate uses this value to determine the entity to which it has to map a database record. If you don’t define a discriminator column, as I do in the following code snippet, Hibernate, and all other JPA implementations use the column DTYPE﻿.
+The subclasses need to extend the superclass, and you need to annotate them with a @Entity﻿ annotation. The JPA specification also recommends to annotate it with a @DiscriminatorValue﻿ annotation to define the discriminator value for this entity class. If you don’t provide this annotation, your JPA implementation generates a discriminator value. But the JPA specification doesn’t define how to generate the discriminator value, and your application might not be portable to other JPA implementations. Hibernate uses the simple entity name as the discriminator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@Inheritance(strategy = InheritanceType.SINGLE_TABLE)
+public abstract class Publication {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ private LocalDate publishingDate;
+ @ManyToMany
+ @JoinTable(
+        name="PublicationAuthor",
+        joinColumns={@JoinColumn(name="publicationId", referencedColumnName="id")},
+        inverseJoinColumns={@JoinColumn(name="authorId", referencedColumnName="id")})
+ private Set&lt;Author&gt; authors = new HashSet&lt;Author&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@DiscriminatorValue("Book")
+public class Book extends Publication {
+ private int numPages;
+ public int getNumPages() {
+  return numPages;
+ }
+ public void setNumPages(int numPages) {
+  this.numPages = numPages;
+ }
+ @Override
+ public int hashCode() {
+  return 31;
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@DiscriminatorValue("BlogPost")
+public class BlogPost extends Publication {
+ private String url;
+ public String getUrl() {
+  return url;
+ }
+ public void setUrl(String url) {
+  this.url = url;
+ }
+ @Override
+ public String toString() {
+  return "BlogPost [url=" + url + "]";
+ }</t>
+  </si>
+  <si>
+    <t>CREATE TABLE public.publication
+(
+    dtype character varying(31) COLLATE pg_catalog."default" NOT NULL,
+    id bigint NOT NULL,
+    publishingdate date,
+    title character varying(255) COLLATE pg_catalog."default",
+    version integer NOT NULL,
+    numpages integer,
+    url character varying(255) COLLATE pg_catalog."default",
+    CONSTRAINT publication_pkey PRIMARY KEY (id)
+)</t>
+  </si>
+  <si>
+    <t>log SQL statements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">log4j.appender.stdout=org.apache.log4j.ConsoleAppender
+log4j.appender.stdout.Target=System.out
+log4j.appender.stdout.layout=org.apache.log4j.PatternLayout
+log4j.appender.stdout.layout.ConversionPattern=%d{HH:mm:ss,SSS} %-5p [%c] - %m%n
+log4j.rootLogger=info, stdout
+# basic log level for all messages
+log4j.logger.org.hibernate=info
+# SQL statements and parameters
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log4j.logger.org.hibernate.SQL=debug
+log4j.logger.org.hibernate.type.descriptor.sql=trace</t>
+    </r>
+  </si>
+  <si>
+    <t>Hibernate uses two different log categories and log levels to log the executed SQL statements and their bind parameters: 
+The SQL statements are written as DEBUG﻿ messages to the category org.hibernate.SQL﻿. 
+The bind parameter values are logged to the org.hibernate.type.descriptor.sql﻿ category with log level TRACE﻿. 
+You can activate and deactivate them independently of each other in your log configuration. Log4j example follows:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;persistence xmlns="http://xmlns.jcp.org/xml/ns/persistence"
+ xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" version="2.1"
+ xsi:schemaLocation="http://xmlns.jcp.org/xml/ns/persistence http://xmlns.jcp.org/xml/ns/persistence/persistence_2_1.xsd"&gt;
+ &lt;persistence-unit name="my-persistence-unit"&gt;
+  &lt;description&gt;Hibernate Tips&lt;/description&gt;
+  &lt;provider&gt;org.hibernate.jpa.HibernatePersistenceProvider&lt;/provider&gt;
+  &lt;exclude-unlisted-classes&gt;false&lt;/exclude-unlisted-classes&gt;
+  &lt;properties&gt;
+   &lt;property name="hibernate.dialect" value="org.hibernate.dialect.PostgreSQLDialect" /&gt;
+   &lt;property name="hibernate.generate_statistics" value="true" /&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;property name="hibernate.format_sql" value="true" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   &lt;property name="javax.persistence.jdbc.driver" value="org.postgresql.Driver" /&gt;
+   &lt;property name="javax.persistence.jdbc.url" value="jdbc:postgresql://localhost:5432/recipes" /&gt;
+   &lt;property name="javax.persistence.jdbc.user" value="postgres" /&gt;
+   &lt;property name="javax.persistence.jdbc.password" value="postgres" /&gt;
+   &lt;property name="javax.persistence.schema-generation.database.action" value="drop-and-create" /&gt;
+   &lt;property name="javax.persistence.sql-load-script-source" value="data.sql"/&gt;
+  &lt;/properties&gt;
+ &lt;/persistence-unit&gt;
+&lt;/persistence&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>JPQL query at runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  TypedQuery&lt;Book&gt; q = em.createQuery("SELECT b FROM Book b WHERE b.id = :id", Book.class);
+  q.setParameter("id", 1L);
+  Book b = q.getSingleResult();
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also provide the class of the Book﻿ entity as the second parameter to the createQuery﻿ method. This parameter is optional. It tells Hibernate the type of the query results and allows it to use the strongly typed TypedQuery﻿ instead of the untyped Query﻿ interface. You can see the main benefit of it in the last line of the code sample. The getSingleResult﻿ method of the TypedQuery﻿ interface returns a Book﻿ entity instead of an Object﻿, and I don’t need to cast the query result.
+</t>
+  </si>
+  <si>
+    <t>Named JPQL Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@NamedQuery(name = Book.QUERY_SELECT_BY_ID, query = "SELECT b FROM Book b WHERE b.id = :" + Book.PARAM_ID)
+public class Book {
+ public static final String QUERY_SELECT_BY_ID = "Book.selectById";
+ public static final String PARAM_ID = "id";
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;</t>
+  </si>
+  <si>
+    <t>em.getTransaction().begin();
+  TypedQuery&lt;Book&gt; q = em.createNamedQuery(Book.QUERY_SELECT_BY_ID, Book.class);
+  q.setParameter(Book.PARAM_ID, 1L);
+  Book b = q.getSingleResult();
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <t>select POJO (constructor query)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ @Temporal(TemporalType.DATE)
+ private Date publishingDate;
+ @ManyToOne
+ @JoinColumn(name="publisherid")
+ private Publisher publisher;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Publisher {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String name;
+ @OneToMany(mappedBy = "publisher")
+ private Set&lt;Book&gt; books = new HashSet&lt;Book&gt;();</t>
+  </si>
+  <si>
+    <t>public class BookValue {
+ public Long id;
+ public String title;
+ public String publisherName;
+ public BookValue(Long id, String title, String publisherName) {
+  this.id = id;
+  this.title = title;
+  this.publisherName = publisherName;
+ }</t>
+  </si>
+  <si>
+    <t>EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  TypedQuery&lt;BookValue&gt; q = em.createQuery("SELECT new org.thoughts.on.java.model.BookValue(b.id, b.title, b.publisher.name) FROM Book b WHERE b.id = :id", BookValue.class);
+  q.setParameter("id", 1L);
+  BookValue b = q.getSingleResult();
+  Assert.assertTrue(b instanceof BookValue);
+  Assert.assertEquals(new Long(1), ((BookValue)b).getId());
+  log.info(b);
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPQL supports constructor expressions that allow you to define a constructor call in the SELECT﻿ clause of your query.
+Instead of selecting an entity, I define a constructor expression in the SELECT﻿ clause. It consists of the keyword new﻿, the fully qualified name of the class you want to instantiate and a comma separated list of parameters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple scalar values with a JPQL query
+</t>
+  </si>
+  <si>
+    <t>TypedQuery &lt; Object[] &gt; q = em.createQuery( "SELECT b.title, b.publisher.name FROM Book b WHERE b.id = :id", Object[]. class); q.setParameter(" id", 1L); Object[] result = q.getSingleResult();</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns them as an Object[]﻿.
+</t>
+  </si>
+  <si>
+    <t>initialize lazy relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ @Temporal(TemporalType.DATE)
+ private Date publishingDate;
+ @ManyToOne
+ @JoinColumn(name="publisherid")
+ private Publisher publisher;
+ @ManyToMany
+ @JoinTable(
+        name="BookAuthor",
+        joinColumns={@JoinColumn(name="bookId", referencedColumnName="id")},
+        inverseJoinColumns={@JoinColumn(name="authorId", referencedColumnName="id")})
+ private Set&lt;Author&gt; authors = new HashSet&lt;Author&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Author {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String firstName;
+ private String lastName;
+ @ManyToMany(mappedBy="authors")
+ private List&lt;Book&gt; books = new ArrayList&lt;Book&gt;();
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  Author a = em.createQuery("SELECT a FROM Author a WHERE id = 1", Author.class).getSingleResult();
+  log.info("Commit transaction and close Session");
+  em.getTransaction().commit();
+  em.close();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">org.hibernate.LazyInitializationException: failed to lazily initialize a collection of role
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  Author a = em.createQuery("SELECT a FROM Author a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOIN FETCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a.books WHERE a.id = 1", Author.class).getSingleResult();
+  log.info("Commit transaction and close Session");
+  em.getTransaction().commit();
+  em.close();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Must be JOIN FETCH!
+The additional FETCH﻿ keyword tells Hibernate not only to join the entity for the query but also to fetch it from the database to initialize the attribute. That prevents LazyInitializationExceptions﻿ if you access the relationship attribute outside of an active Hibernate Session﻿.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downcast entities in JPQL queries
+</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,6 +1473,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,6 +1504,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1714499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4303493" cy="3752849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1095,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1185,26 +2087,89 @@
         <v>49</v>
       </c>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="408.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="362.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="270.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="360">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
@@ -1333,20 +2298,396 @@
     <row r="43" spans="1:2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="160.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="64.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="160.5" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="160.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="225">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.5">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.5">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="405">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="160.5" customHeight="1">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" ht="160.5" customHeight="1">
+      <c r="C37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" customWidth="1"/>
+    <col min="4" max="4" width="93.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="375">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="198.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="197.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="289.5" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="225">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="165">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="197.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="270">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="256.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HibernateTips/Hibernate.xlsx
+++ b/HibernateTips/Hibernate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502413934\Documents\github\GitTest\HibernateTips\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Associations" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
   <si>
     <t>One book can have many reviews</t>
   </si>
@@ -1411,12 +1416,404 @@
     <t xml:space="preserve">downcast entities in JPQL queries
 </t>
   </si>
+  <si>
+    <t>Model same as per SINGLE_TABLE inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit query to specific class of inheritance using TREAT keyword. You can downcast the query to this specific Entity.
+</t>
+  </si>
+  <si>
+    <t>Call DB function</t>
+  </si>
+  <si>
+    <t>Call standard function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Author {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String firstName;
+ private String lastName;
+ @ManyToMany(mappedBy="authors")
+ private List&lt;Book&gt; books = new ArrayList&lt;Book&gt;();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  List&lt;Object[]&gt; result = em
+    .createQuery(
+      "SELECT a, p FROM Author a JOIN a.publications p WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> treat(p AS Book)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.title LIKE '%Java%'")
+    .getResultList();
+  em.getTransaction().commit();
+  em.close();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  Query q = em.createQuery("SELECT a, size(a.books) FROM Author a GROUP BY a.id");
+  @SuppressWarnings("unchecked")
+  List&lt;Object[]&gt; results = q.getResultList();
+  for (Object[] r :  results) {
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  log.info(r[0] + " wrote " +  r[1] + " books.");</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+  em.getTransaction().commit();
+  em.close();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember how to read iterator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ private Double price;
+ @Temporal(TemporalType.DATE)
+ private Date publishingDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  TypedQuery&lt;Book&gt; q = em.createQuery(
+       "SELECT b "
+       + "FROM Book b "
+       + "WHERE :double2 &gt; function('calculate', b.price, :double1)"
+       , Book.class);
+  q.setParameter("double1", 10.0D);
+  q.setParameter("double2", 40.0D);
+  List&lt;Book&gt; books = q.getResultList();
+  for (Book b : books) {
+   log.info(b);
+  }
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can use function () in WHERE or SELECT statements.
+In SELECT clause you need to register the function so Hibernate knows it's result type.
+In the example here: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calculate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the name of Postgres function
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Pagination with JPQL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> .setFirstResult( start position)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indexing from 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.setMaxResults(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  List&lt;Author&gt; authors = em.createQuery("SELECT a FROM Author a ORDER BY a.id ASC", Author.class)
+         .setMaxResults(5)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .setFirstResult(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         .getResultList();
+  Assert.assertEquals("Expected a list of 5 authors.", 5, authors.size());
+  authors.forEach(a -&gt; log.info(a.getFirstName() + " " + a.getLastName()));
+  em.getTransaction().commit();
+  em.close();</t>
+    </r>
+  </si>
+  <si>
+    <t>define a timeout</t>
+  </si>
+  <si>
+    <t>EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  List&lt;Author&gt; authors = em.createQuery("SELECT a FROM Author a", Author.class)
+    .setHint("javax.persistence.query.timeout", 1)
+    .getResultList();
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <t>Timeout on query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  HashMap&lt;String, Object&gt; hints = new HashMap&lt;&gt;();
+  hints.put("javax.persistence.query.timeout", 1);
+  em.find(Author.class, 50L, hints);
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <t>timeout on EM transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can achive this by setting javx.persistance.query.timeout.hint in miliseconds.
+Hibernate calls JDBC's setTimeout
+</t>
+  </si>
+  <si>
+    <t>delete multiple entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  log.info("... deleteBooks ...");
+  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  logBooks(em);
+  Query query = em.createQuery("DELETE Book b");
+  query.executeUpdate();
+  logBooks(em);
+  em.getTransaction().commit();
+  em.close();</t>
+  </si>
+  <si>
+    <t>It first deletes in associated entities then Entity itself.
+Hibernate doesn't know which database records it has deleted and doesn't remove any entities from 1st level cache.
+This has to be done programmatically.</t>
+  </si>
+  <si>
+    <t>Hibernate doesn't know which database records it has deleted and doesn't remove any entities from 1st level cache.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  logBookPrices(em);
+  Query query = em.createQuery("UPDATE Book b SET b.price = b.price*1.1");
+  query.executeUpdate();
+  logBookPrices(em);
+  em.getTransaction().commit();
+  em.close();
+ }</t>
+  </si>
+  <si>
+    <t>update multiple</t>
+  </si>
+  <si>
+    <t>2nd level cache</t>
+  </si>
+  <si>
+    <t>has training.
+Hibernate's second level cache is session-independent
+Deactivated by default.
+Shared-cache-mode (ALL - all entities, NONE, ENABLE_SELECTIVE - select entities to be cached, DISABLE_SELECTIVE- select entities not to be cached</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;persistence xmlns="http://xmlns.jcp.org/xml/ns/persistence"
+ xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" version="2.1"
+ xsi:schemaLocation="http://xmlns.jcp.org/xml/ns/persistence http://xmlns.jcp.org/xml/ns/persistence/persistence_2_1.xsd"&gt;
+ &lt;persistence-unit name="my-persistence-unit"&gt;
+  &lt;description&gt;Hibernate Tips&lt;/description&gt;
+  &lt;provider&gt;org.hibernate.jpa.HibernatePersistenceProvider&lt;/provider&gt;
+  &lt;exclude-unlisted-classes&gt;false&lt;/exclude-unlisted-classes&gt;
+  &lt;!-- enable selective 2nd level cache --&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;shared-cache-mode&gt;ENABLE_SELECTIVE&lt;/shared-cache-mode&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;properties&gt;
+   &lt;property name="hibernate.dialect" value="org.hibernate.dialect.PostgreSQLDialect" /&gt;
+   &lt;property name="hibernate.generate_statistics" value="true" /&gt;
+   &lt;property name="javax.persistence.jdbc.driver" value="org.postgresql.Driver" /&gt;
+   &lt;property name="javax.persistence.jdbc.url" value="jdbc:postgresql://localhost:5432/recipes" /&gt;
+   &lt;property name="javax.persistence.jdbc.user" value="postgres" /&gt;
+   &lt;property name="javax.persistence.jdbc.password" value="postgres" /&gt;
+   &lt;property name="javax.persistence.schema-generation.database.action"
+    value="drop-and-create" /&gt;
+   &lt;property name="javax.persistence.sql-load-script-source"
+    value="data.sql" /&gt;
+   &lt;!-- configure caching --&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;property name="hibernate.cache.region.factory_class" value="org.hibernate.cache.ehcache.EhCacheRegionFactory" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;/properties&gt;
+ &lt;/persistence-unit&gt;
+&lt;/persistence&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+@Cacheable
+public class Author {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String firstName;
+ private String lastName;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1829,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1441,7 +1855,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1449,11 +1863,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1480,29 +1909,70 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1523,7 +1993,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1559,7 +2035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1601,7 +2077,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1633,9 +2109,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1667,6 +2161,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1842,478 +2354,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="341.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="341.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="240" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="362.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="306.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
     <col min="3" max="5" width="58.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="57.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="197.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="229.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="370.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="301.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="262.5" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="408.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="362.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="270.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="360">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="62" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="E6" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="160.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="160.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" hidden="1" customWidth="1"/>
@@ -2325,19 +2861,19 @@
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="160.5" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="160.5" customHeight="1">
+    <row r="2" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="225">
+    <row r="3" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2357,7 +2893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.5">
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -2381,7 +2917,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="409.5">
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
@@ -2404,7 +2940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="405">
+    <row r="6" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
@@ -2427,102 +2963,102 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="160.5" customHeight="1">
+    <row r="7" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="160.5" customHeight="1">
+    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="160.5" customHeight="1">
+    <row r="9" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="160.5" customHeight="1">
+    <row r="10" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="160.5" customHeight="1">
+    <row r="11" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="160.5" customHeight="1">
+    <row r="12" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="160.5" customHeight="1">
+    <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="160.5" customHeight="1">
+    <row r="14" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="160.5" customHeight="1">
+    <row r="15" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="160.5" customHeight="1">
+    <row r="16" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" ht="160.5" customHeight="1">
+    <row r="17" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" ht="160.5" customHeight="1">
+    <row r="18" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" ht="160.5" customHeight="1">
+    <row r="19" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" ht="160.5" customHeight="1">
+    <row r="20" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" ht="160.5" customHeight="1">
+    <row r="21" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" ht="160.5" customHeight="1">
+    <row r="22" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" ht="160.5" customHeight="1">
+    <row r="23" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" ht="160.5" customHeight="1">
+    <row r="24" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" ht="160.5" customHeight="1">
+    <row r="25" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" ht="160.5" customHeight="1">
+    <row r="26" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" ht="160.5" customHeight="1">
+    <row r="27" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" ht="160.5" customHeight="1">
+    <row r="28" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3" ht="160.5" customHeight="1">
+    <row r="29" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3" ht="160.5" customHeight="1">
+    <row r="30" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3" ht="160.5" customHeight="1">
+    <row r="31" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3" ht="160.5" customHeight="1">
+    <row r="32" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" ht="160.5" customHeight="1">
+    <row r="33" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" ht="160.5" customHeight="1">
+    <row r="34" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" ht="160.5" customHeight="1">
+    <row r="35" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" ht="160.5" customHeight="1">
+    <row r="36" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3" ht="160.5" customHeight="1">
+    <row r="37" spans="3:3" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
     </row>
   </sheetData>
@@ -2535,22 +3071,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="79.85546875" customWidth="1"/>
+    <col min="2" max="3" width="79.85546875" customWidth="1"/>
     <col min="4" max="4" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="375">
+    <row r="1" spans="1:4" ht="390" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
@@ -2562,6 +3097,20 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="321.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2570,14 +3119,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" style="5" customWidth="1"/>
@@ -2585,101 +3137,204 @@
     <col min="4" max="4" width="66.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="198.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="197.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="289.5" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="225">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="165">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="197.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5" customHeight="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="270">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="256.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>123</v>
       </c>
+      <c r="B9" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="258" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
@@ -2688,6 +3343,6 @@
     <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HibernateTips/Hibernate.xlsx
+++ b/HibernateTips/Hibernate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Associations" sheetId="1" r:id="rId1"/>
@@ -1914,9 +1914,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1936,28 +1933,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2360,8 +2360,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,134 +2375,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,178 +2532,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="360" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2862,8 +2862,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
@@ -3074,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3138,70 +3138,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3209,75 +3209,75 @@
       <c r="A7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="258" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3285,47 +3285,47 @@
       <c r="A13" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>147</v>
       </c>
     </row>

--- a/HibernateTips/Hibernate.xlsx
+++ b/HibernateTips/Hibernate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Associations" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Inheritance" sheetId="3" r:id="rId3"/>
     <sheet name="Loggining" sheetId="4" r:id="rId4"/>
     <sheet name="JPQL" sheetId="5" r:id="rId5"/>
+    <sheet name="Criteria" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>One book can have many reviews</t>
   </si>
@@ -1807,6 +1808,29 @@
  private int version;
  private String firstName;
  private String lastName;</t>
+  </si>
+  <si>
+    <t>CriteriaQuery</t>
+  </si>
+  <si>
+    <t>EntityManager em = emf.createEntityManager();
+  em.getTransaction().begin();
+  CriteriaBuilder cb = em.getCriteriaBuilder();
+  CriteriaQuery&lt;Book&gt; cq = cb.createQuery(Book.class);
+  Root&lt;Book&gt; root = cq.from(Book.class);
+  SetJoin&lt;Book, Author&gt; authors = root.join(Book_.authors);
+  ParameterExpression&lt;String&gt; paramFirstName = cb.parameter(String.class);
+  ParameterExpression&lt;String&gt; paramLastName = cb.parameter(String.class);
+  cq.where(
+   cb.and(
+    cb.equal(authors.get(Author_.firstName), paramFirstName), 
+    cb.equal(authors.get(Author_.lastName), paramLastName)));
+  TypedQuery&lt;Book&gt; query = em.createQuery(cq);
+  query.setParameter(paramFirstName, "Thorben");
+  query.setParameter(paramLastName, "Janssen");
+  List&lt;Book&gt; books = query.getResultList();
+em.getTransaction().commit();
+  em.close();</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1958,6 +1982,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2360,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,7 +3153,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,4 +3372,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="83" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1930BE4-451F-4879-9663-46B847EDD20C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="372.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HibernateTips/Hibernate.xlsx
+++ b/HibernateTips/Hibernate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Associations" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
   <si>
     <t>One book can have many reviews</t>
   </si>
@@ -1831,6 +1831,81 @@
   List&lt;Book&gt; books = query.getResultList();
 em.getTransaction().commit();
   em.close();</t>
+  </si>
+  <si>
+    <t>Association with attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+@Embeddable
+public class BookPublisherId implements Serializable {
+ private static final long serialVersionUID = -3287715633608041039L;
+ private Long bookId;
+ private Long publisherId;
+ public BookPublisherId() {
+ }
+ public BookPublisherId(Long bookId, Long publisherId) {
+  this.bookId = bookId;
+  this.publisherId = publisherId;
+ }
+ public Long getBookId() {
+  return bookId;
+ }
+ public Long getPublisherId() {
+  return publisherId;
+ }
+ @Override
+ public int hashCode() {
+  final int prime = 31;
+  int result = 1;
+  result = prime * result + ((bookId == null) ? 0 : bookId.hashCode());
+  result = prime * result
+    + ((publisherId == null) ? 0 : publisherId.hashCode());
+  return result;
+ }
+ @Override
+ public boolean equals(Object obj) {
+  if (this == obj)
+   return true;
+  if (obj == null)
+   return false;
+  if (getClass() != obj.getClass())
+   return false;
+  BookPublisherId other = (BookPublisherId) obj;
+  return Objects.equals(bookId, other.bookId)
+    &amp;&amp; Objects.equals(publisherId, other.getPublisherId());
+ }
+ @Override
+ public String toString() {
+  return "BookPublisherId [bookId=" + bookId + ", publisherId="
+    + publisherId + "]";
+ }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity
+public class Book {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String title;
+ @OneToMany(mappedBy = "book")
+ private List&lt;BookPublisher&gt; publishers = new ArrayList&lt;BookPublisher&gt;();
+ @Entity
+public class Publisher {
+ @Id
+ @GeneratedValue(strategy = GenerationType.AUTO)
+ @Column(name = "id", updatable = false, nullable = false)
+ private Long id;
+ @Version
+ private int version;
+ private String name;
+ @OneToMany(mappedBy = "publisher")
+ private List&lt;BookPublisher&gt; books = new ArrayList&lt;BookPublisher&gt;();
+</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +2041,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1982,9 +2060,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,15 +2460,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -2531,6 +2606,20 @@
       </c>
       <c r="F7" s="12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2546,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,8 +2978,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
@@ -3189,34 +3278,34 @@
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -3233,26 +3322,26 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -3309,7 +3398,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3323,7 +3412,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="12" t="s">
         <v>141</v>
       </c>
@@ -3378,7 +3467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1930BE4-451F-4879-9663-46B847EDD20C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3390,7 +3479,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="372.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="10" t="s">
